--- a/80_Document/AboutTemplate.xlsx
+++ b/80_Document/AboutTemplate.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Dev\00_Git\02_Native\VBA\Excel\Framework_InConfig\80_Document\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Dev\00_Git\02_Native\VBA\Excel\Framework\80_Document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A28F0E82-5CF0-496A-BC1B-75DF5173B598}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA3922CB-BE73-4A56-9CD5-6EE7FAAAEA7F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="111">
   <si>
     <t>ExcelVBA_Template</t>
     <phoneticPr fontId="2"/>
@@ -36,37 +36,6 @@
   </si>
   <si>
     <t>ExcelVBA_Template について</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>実務ではソースコードの引継ぎは避けられないケースが多く、非エンジニアや新人エンジニアが後任となる可能性を考慮し、</t>
-    <rPh sb="0" eb="2">
-      <t>ジツム</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ヒキツ</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>サ</t>
-    </rPh>
-    <rPh sb="25" eb="26">
-      <t>オオ</t>
-    </rPh>
-    <rPh sb="28" eb="29">
-      <t>ヒ</t>
-    </rPh>
-    <rPh sb="35" eb="37">
-      <t>シンジン</t>
-    </rPh>
-    <rPh sb="43" eb="45">
-      <t>コウニン</t>
-    </rPh>
-    <rPh sb="48" eb="51">
-      <t>カノウセイ</t>
-    </rPh>
-    <rPh sb="52" eb="54">
-      <t>コウリョ</t>
-    </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -814,31 +783,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>変更される可能性のあるデータは「USER_CONF」シートに設定し、本処理で適宜読み取ることとする。</t>
-    <rPh sb="0" eb="2">
-      <t>ヘンコウ</t>
-    </rPh>
-    <rPh sb="5" eb="8">
-      <t>カノウセイ</t>
-    </rPh>
-    <rPh sb="30" eb="32">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="34" eb="35">
-      <t>ホン</t>
-    </rPh>
-    <rPh sb="35" eb="37">
-      <t>ショリ</t>
-    </rPh>
-    <rPh sb="40" eb="41">
-      <t>ヨ</t>
-    </rPh>
-    <rPh sb="42" eb="43">
-      <t>ト</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>改修は変更管理など煩雑な手続きが発生する場合があるめ、ソースコード中の定数ではなくワークシートの使用を推奨する。</t>
     <rPh sb="0" eb="2">
       <t>カイシュウ</t>
@@ -892,59 +836,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>業務での使用頻度が高い機能を共通化したフレームワークとカテゴリごとのライブラリを持つExcelVBA開発用テンプレート。</t>
-    <rPh sb="0" eb="2">
-      <t>ギョウム</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>シヨウ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ヒンド</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>タカ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>キノウ</t>
-    </rPh>
-    <rPh sb="14" eb="17">
-      <t>キョウツウカ</t>
-    </rPh>
-    <rPh sb="50" eb="53">
-      <t>カイハツヨウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>非エンジニアによる開発および運用と、開発速度の向上を目的として作成した。</t>
-    <rPh sb="0" eb="1">
-      <t>ヒ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>カイハツ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>ウンヨウ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>カイハツ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>ソクド</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>コウジョウ</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>モクテキ</t>
-    </rPh>
-    <rPh sb="31" eb="33">
-      <t>サクセイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>リリース時にはシート保護、シート非表示を推奨する。</t>
     <rPh sb="4" eb="5">
       <t>ジ</t>
@@ -1004,6 +895,408 @@
     </rPh>
     <rPh sb="41" eb="43">
       <t>スイショウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>8.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>フォルダ構成</t>
+    <rPh sb="4" eb="6">
+      <t>コウセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Framework</t>
+  </si>
+  <si>
+    <t>├─00_Settings</t>
+  </si>
+  <si>
+    <t>│  ├─01_Master</t>
+  </si>
+  <si>
+    <t>│  └─02_Template</t>
+  </si>
+  <si>
+    <t>├─10_InFile</t>
+  </si>
+  <si>
+    <t>├─20_OutFile</t>
+  </si>
+  <si>
+    <t>├─80_Document</t>
+  </si>
+  <si>
+    <t>…</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>入力ファイルを格納</t>
+    <rPh sb="0" eb="2">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カクノウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>処理済みファイル出力先</t>
+    <rPh sb="0" eb="2">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ズ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>シュツリョク</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>サキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>リリース時に運用手順等のドキュメントを格納</t>
+    <rPh sb="4" eb="5">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ウンヨウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>テジュン</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>トウ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>カクノウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>出力ファイルのひな形等を格納</t>
+    <rPh sb="0" eb="2">
+      <t>シュツリョク</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ガタ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>トウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>カクノウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>運用担当者が変更可能なファイルを格納</t>
+    <rPh sb="0" eb="2">
+      <t>ウンヨウ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>タントウシャ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>カノウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>カクノウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>システム開発者専用フォルダ</t>
+    <rPh sb="4" eb="6">
+      <t>カイハツ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>シャ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>センヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>スクリプト格納先</t>
+    <rPh sb="5" eb="7">
+      <t>カクノウ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>サキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>実行ログを出力先</t>
+    <rPh sb="0" eb="2">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>シュツリョク</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>サキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>フォルダ構成と各フォルダの役割（作成意図）は下記の通り。</t>
+    <rPh sb="4" eb="6">
+      <t>コウセイ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ヤクワリ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>イト</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>カキ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>トオ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>各種マスタを格納</t>
+    <rPh sb="0" eb="2">
+      <t>カクシュ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>カクノウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「00_Log」フォルダはデフォルトでログファイル出力先に指定されているため、</t>
+    <rPh sb="25" eb="27">
+      <t>シュツリョク</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>サキ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>シテイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>構成を変更する場合は「SYS_CONF」シートのパスも変更すること。</t>
+    <rPh sb="0" eb="2">
+      <t>コウセイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>変更する場合はログ出力とログファイル削除処理を無効化、または変更すること。</t>
+    <rPh sb="18" eb="20">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「SYS_CONF」は開発終了後は基本的に変更しないデータを設定する。</t>
+    <rPh sb="11" eb="13">
+      <t>カイハツ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>シュウリョウ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="17" eb="20">
+      <t>キホンテキ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>変更される可能性のあるデータは「USER_CONF」シートに設定する。</t>
+    <rPh sb="0" eb="2">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>カノウセイ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>業務での使用頻度が高い機能を共通化したフレームワークと、カテゴリごとのライブラリを持つExcelVBA開発用テンプレート。</t>
+    <rPh sb="0" eb="2">
+      <t>ギョウム</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ヒンド</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>タカ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="14" eb="17">
+      <t>キョウツウカ</t>
+    </rPh>
+    <rPh sb="51" eb="54">
+      <t>カイハツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>非エンジニアによる開発・運用と、開発速度・品質の向上を目的として作成した。</t>
+    <rPh sb="0" eb="1">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>カイハツ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ウンヨウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>カイハツ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ソクド</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ヒンシツ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>コウジョウ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>モクテキ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>実務ではソースコードの引継ぎを避けられないケースが多く、非エンジニアや新人エンジニアが後任となる可能性を考慮し、</t>
+    <rPh sb="0" eb="2">
+      <t>ジツム</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ヒキツ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>サ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>シンジン</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>コウニン</t>
+    </rPh>
+    <rPh sb="48" eb="51">
+      <t>カノウセイ</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>コウリョ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>└─Main.xlsm</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>├─90_System</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>│  ├─00_Log</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>│  └─10_Script</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>プロジェクトフォルダ（業務名称等に任意に変更可）</t>
+    <rPh sb="11" eb="13">
+      <t>ギョウム</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>メイショウ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>トウ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ニンイ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>実行用ファイル（ファイル名変更可）</t>
+    <rPh sb="0" eb="3">
+      <t>ジッコウヨウ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>カ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -2992,7 +3285,7 @@
   <sheetPr codeName="Sheet6">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B2:AL108"/>
+  <dimension ref="B2:AL127"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -3016,60 +3309,60 @@
     </row>
     <row r="5" spans="2:4">
       <c r="D5" s="2" t="s">
-        <v>76</v>
+        <v>102</v>
       </c>
     </row>
     <row r="6" spans="2:4">
       <c r="D6" s="2" t="s">
-        <v>77</v>
+        <v>103</v>
       </c>
     </row>
     <row r="7" spans="2:4">
       <c r="D7" s="2" t="s">
-        <v>3</v>
+        <v>104</v>
       </c>
     </row>
     <row r="8" spans="2:4">
       <c r="D8" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="2:4">
       <c r="C10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" s="3" t="s">
         <v>5</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="11" spans="2:4">
       <c r="C11" s="3"/>
       <c r="D11" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="2:4">
       <c r="D16" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="17" spans="3:38">
       <c r="D17" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="19" spans="3:38">
       <c r="E19" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K19" s="2" t="s">
         <v>8</v>
-      </c>
-      <c r="K19" s="2" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="20" spans="3:38">
       <c r="E20" s="5"/>
       <c r="F20" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G20" s="6"/>
       <c r="H20" s="6"/>
@@ -3079,10 +3372,10 @@
       <c r="L20" s="6"/>
       <c r="M20" s="6"/>
       <c r="N20" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="O20" s="6" t="s">
         <v>11</v>
-      </c>
-      <c r="O20" s="6" t="s">
-        <v>12</v>
       </c>
       <c r="P20" s="6"/>
       <c r="Q20" s="6"/>
@@ -3111,46 +3404,46 @@
     <row r="21" spans="3:38">
       <c r="E21" s="8"/>
       <c r="G21" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="N21" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="O21" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="N21" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="O21" s="2" t="s">
-        <v>14</v>
       </c>
       <c r="AL21" s="9"/>
     </row>
     <row r="22" spans="3:38">
       <c r="E22" s="8"/>
       <c r="G22" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="N22" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="O22" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="N22" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="O22" s="2" t="s">
-        <v>16</v>
       </c>
       <c r="AL22" s="9"/>
     </row>
     <row r="23" spans="3:38">
       <c r="E23" s="8"/>
       <c r="G23" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="N23" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="O23" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="N23" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="O23" s="2" t="s">
-        <v>18</v>
       </c>
       <c r="AL23" s="9"/>
     </row>
     <row r="24" spans="3:38">
       <c r="E24" s="10"/>
       <c r="F24" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G24" s="11"/>
       <c r="H24" s="11"/>
@@ -3187,27 +3480,27 @@
     </row>
     <row r="26" spans="3:38">
       <c r="C26" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D26" s="3" t="s">
         <v>20</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="27" spans="3:38">
       <c r="C27" s="3"/>
       <c r="D27" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" spans="3:38">
       <c r="C28" s="3"/>
       <c r="D28" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="29" spans="3:38">
       <c r="D29" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="30" spans="3:38">
@@ -3240,16 +3533,16 @@
     <row r="31" spans="3:38">
       <c r="D31" s="8"/>
       <c r="F31" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="L31" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="L31" s="14" t="s">
+      <c r="R31" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="R31" s="14" t="s">
+      <c r="X31" s="14" t="s">
         <v>27</v>
-      </c>
-      <c r="X31" s="14" t="s">
-        <v>28</v>
       </c>
       <c r="AA31" s="9"/>
     </row>
@@ -3439,16 +3732,16 @@
     </row>
     <row r="57" spans="3:27">
       <c r="C57" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D57" s="3" t="s">
         <v>29</v>
-      </c>
-      <c r="D57" s="3" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="58" spans="3:27">
       <c r="C58" s="3"/>
       <c r="D58" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="59" spans="3:27">
@@ -3457,74 +3750,74 @@
         <v>1</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="60" spans="3:27">
       <c r="E60" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="62" spans="3:27">
       <c r="D62" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="63" spans="3:27">
       <c r="E63" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="64" spans="3:27">
       <c r="E64" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="66" spans="3:16">
       <c r="D66" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="68" spans="3:16">
       <c r="C68" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D68" s="3" t="s">
         <v>38</v>
-      </c>
-      <c r="D68" s="3" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="69" spans="3:16">
       <c r="C69" s="3"/>
       <c r="D69" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="70" spans="3:16">
       <c r="C70" s="3"/>
       <c r="D70" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="71" spans="3:16">
       <c r="C71" s="3"/>
       <c r="D71" s="4" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="73" spans="3:16">
       <c r="C73" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D73" s="3" t="s">
         <v>41</v>
-      </c>
-      <c r="D73" s="3" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="74" spans="3:16">
       <c r="D74" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="75" spans="3:16">
@@ -3532,170 +3825,324 @@
         <v>1</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="76" spans="3:16">
       <c r="E76" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="77" spans="3:16">
       <c r="E77" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="P77" s="2" t="s">
         <v>46</v>
-      </c>
-      <c r="P77" s="2" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="78" spans="3:16">
       <c r="E78" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="P78" s="2" t="s">
         <v>48</v>
-      </c>
-      <c r="P78" s="2" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="79" spans="3:16">
       <c r="G79" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="80" spans="3:16">
       <c r="D80" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="81" spans="4:5">
       <c r="E81" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="82" spans="4:5">
       <c r="E82" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="84" spans="4:5">
-      <c r="D84" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E84" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="83" spans="4:5">
+      <c r="E83" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="85" spans="4:5">
+      <c r="D85" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E85" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="86" spans="4:5">
+      <c r="E86" s="2" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="85" spans="4:5">
-      <c r="E85" s="2" t="s">
+    <row r="88" spans="4:5">
+      <c r="D88" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E88" s="2" t="s">
         <v>54</v>
-      </c>
-    </row>
-    <row r="87" spans="4:5">
-      <c r="D87" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E87" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="88" spans="4:5">
-      <c r="E88" s="2" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="89" spans="4:5">
       <c r="E89" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="90" spans="4:5">
       <c r="E90" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="91" spans="4:5">
       <c r="E91" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="92" spans="4:5">
+      <c r="E92" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="94" spans="4:5">
+      <c r="D94" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E94" s="2" t="s">
         <v>59</v>
-      </c>
-    </row>
-    <row r="93" spans="4:5">
-      <c r="D93" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E93" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="94" spans="4:5">
-      <c r="E94" s="2" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="95" spans="4:5">
       <c r="E95" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="96" spans="4:5">
       <c r="E96" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="97" spans="3:5">
+      <c r="E97" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="99" spans="3:5">
+      <c r="D99" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E99" s="2" t="s">
         <v>63</v>
-      </c>
-    </row>
-    <row r="98" spans="3:5">
-      <c r="D98" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E98" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="99" spans="3:5">
-      <c r="E99" s="2" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="100" spans="3:5">
       <c r="E100" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="101" spans="3:5">
+      <c r="E101" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="103" spans="3:5">
+      <c r="D103" s="4" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="102" spans="3:5">
-      <c r="D102" s="4" t="s">
+    <row r="104" spans="3:5">
+      <c r="D104" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E104" s="2" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="103" spans="3:5">
-      <c r="D103" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E103" s="2" t="s">
+    <row r="105" spans="3:5">
+      <c r="E105" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="104" spans="3:5">
-      <c r="E104" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="106" spans="3:5">
-      <c r="C106" s="3" t="s">
+    <row r="107" spans="3:5">
+      <c r="C107" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D107" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="108" spans="3:5">
+      <c r="C108" s="3"/>
+      <c r="D108" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="D106" s="3" t="s">
+    </row>
+    <row r="109" spans="3:5">
+      <c r="D109" s="2" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="107" spans="3:5">
-      <c r="C107" s="3"/>
-      <c r="D107" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="108" spans="3:5">
-      <c r="D108" s="2" t="s">
-        <v>75</v>
+    <row r="111" spans="3:5">
+      <c r="C111" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D111" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="112" spans="3:5">
+      <c r="D112" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="113" spans="4:12">
+      <c r="D113" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="114" spans="4:12">
+      <c r="D114" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="115" spans="4:12">
+      <c r="D115" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="117" spans="4:12">
+      <c r="D117" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="K117" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="L117" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="118" spans="4:12">
+      <c r="D118" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="K118" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="L118" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="119" spans="4:12">
+      <c r="D119" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="K119" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="L119" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="120" spans="4:12">
+      <c r="D120" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="K120" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="L120" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="121" spans="4:12">
+      <c r="D121" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="K121" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="L121" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="122" spans="4:12">
+      <c r="D122" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="K122" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="L122" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="123" spans="4:12">
+      <c r="D123" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="K123" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="L123" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="124" spans="4:12">
+      <c r="D124" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="K124" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="L124" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="125" spans="4:12">
+      <c r="D125" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="K125" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="L125" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="126" spans="4:12">
+      <c r="D126" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="K126" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="L126" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="127" spans="4:12">
+      <c r="D127" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="K127" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L127" s="2" t="s">
+        <v>110</v>
       </c>
     </row>
   </sheetData>
